--- a/InventoryManagementForms/bin/Debug/net6.0-windows/User.xlsx
+++ b/InventoryManagementForms/bin/Debug/net6.0-windows/User.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>UserName</t>
   </si>
@@ -29,49 +29,97 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
+    <t>gael</t>
+  </si>
+  <si>
+    <t>UDLfec7YCSqFtVAtTodZmHsHgJADCMryZeBuJaruJkF4CpOv</t>
+  </si>
+  <si>
+    <t>gg@hotmail.com</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>jona</t>
+  </si>
+  <si>
+    <t>kuxUd9yNV20fwqmdGJZUtuQZaFbxU+igXrwC+ELa1ZVnHqbH</t>
+  </si>
+  <si>
+    <t>jona@hotmail.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>6bpqhx3ozPhU2htm6AsiR7MOObYHV2b853NstnfOjPf/H2br</t>
-  </si>
-  <si>
-    <t>Admin</t>
+    <t>/yCFniKxMrqkf9TW+qHjHNrxsBb1QHgg5xrpBaUUj0ZoYl0U</t>
+  </si>
+  <si>
+    <t>string@hotmail.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>nB0vSGs6LsrugmmMLNbisg2jWFjBQ4eStLdrLAqEnln8WgDt</t>
+  </si>
+  <si>
+    <t>test2@hotmail.com</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>z8R9hK+LNNbgnU6LiplC2WPKxJOxeZ1o+MNgKuO6Ca/3L1vG</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>tw4oDUC8BkO/9uS3/7FXErCvSqCng0VqwhvJmy2FUJWp96K1</t>
-  </si>
-  <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>wR5582ifI+KWUBep9hU5rG17ffFj7uVndMIrPDOpm804w4pJ</t>
-  </si>
-  <si>
-    <t>SuperAdmin</t>
-  </si>
-  <si>
-    <t>gggg</t>
-  </si>
-  <si>
-    <t>GtlBc2MMVrRMWcPodDwYc4oqv6z/vtT+hLqJeuSNMBE0ZxuK</t>
-  </si>
-  <si>
-    <t>gg@hotmail.com</t>
+    <t>try</t>
+  </si>
+  <si>
+    <t>Qso8OrWwq4OqKvB8XqMAXn/jNC8khnfAXRD+mA0bG61fzo6d</t>
+  </si>
+  <si>
+    <t>try@hotmail.com</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>SelectedItem</t>
+  </si>
+  <si>
+    <t>try2</t>
+  </si>
+  <si>
+    <t>UwcdFgj+NuLrHcl2rdId+V8YvPnv9ATqeiwc2UBQGXQ+IL6O</t>
+  </si>
+  <si>
+    <t>try2@hotmail.com</t>
+  </si>
+  <si>
+    <t>string2</t>
+  </si>
+  <si>
+    <t>+GU7/mUevFYQMAaQJTujsPaZb7qwvPagipU/6J9DvZM2kosI</t>
+  </si>
+  <si>
+    <t>string2@hotmail.com</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>sKLv4O6FLob3QB9VHfrfBl7cXQpWmVc57FvSQe5rMCzdWKlS</t>
+  </si>
+  <si>
+    <t>t@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -117,7 +165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -142,108 +190,165 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>9</v>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
